--- a/ExcelFunction/함수_01~8필수기초&OT.xlsx
+++ b/ExcelFunction/함수_01~8필수기초&OT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\★유튜브업로드\예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Jun\learning\learning-excel\ExcelFunction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="7380" firstSheet="3" activeTab="7" xr2:uid="{2926AB4F-710D-4137-82DF-E23E96A98EC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="함수개념" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,10 @@
     <sheet name="함수OT" sheetId="10" r:id="rId8"/>
     <sheet name="모든함수" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="성명">함수개념!$B$3:$B$7</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="471">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1580,12 +1583,18 @@
   <si>
     <t>친한함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -2199,42 +2208,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2298,6 +2271,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2321,13 +2330,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>367444</xdr:colOff>
+      <xdr:colOff>34069</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>115194</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800994</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>146067</xdr:rowOff>
     </xdr:to>
@@ -2850,8 +2859,8 @@
       <xdr:rowOff>106149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>328857</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376482</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80282</xdr:rowOff>
     </xdr:to>
@@ -2903,7 +2912,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>575490</xdr:colOff>
+      <xdr:colOff>242115</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>234980</xdr:rowOff>
     </xdr:to>
@@ -5390,11 +5399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C11A39-346B-44F8-8322-80243867D353}">
-  <dimension ref="B2:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5403,10 +5412,11 @@
     <col min="2" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="5.125" customWidth="1"/>
+    <col min="9" max="11" width="5.125" customWidth="1"/>
+    <col min="12" max="12" width="9.125" customWidth="1"/>
     <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5443,6 +5453,10 @@
       <c r="E3" s="5">
         <v>80</v>
       </c>
+      <c r="F3">
+        <f>C3+D3+E3</f>
+        <v>250</v>
+      </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
@@ -5463,6 +5477,10 @@
       <c r="E4" s="5">
         <v>90</v>
       </c>
+      <c r="F4">
+        <f>SUM(C4:E4)</f>
+        <v>260</v>
+      </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
@@ -5483,6 +5501,10 @@
       <c r="E5" s="5">
         <v>85</v>
       </c>
+      <c r="F5">
+        <f>SUM(C5,D5,E5)</f>
+        <v>260</v>
+      </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
@@ -5533,28 +5555,42 @@
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
     </row>
-    <row r="19" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="12:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="12:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="12:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="12:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="12:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" t="b">
+        <f>70+60=130</f>
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.3">
+      <c r="M24" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9" xr:uid="{BE2521FB-A8F5-4E7B-B633-D776CE4FF9F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9 M23">
       <formula1>"성명"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10" xr:uid="{4821455C-F440-4807-8117-926F7C3B2798}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10 M24">
       <formula1>성명</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E730AA-BEC0-47B3-8734-460BEE7CA48F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5568,13 +5604,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:10" ht="33" x14ac:dyDescent="0.3">
@@ -5695,7 +5731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8704EE-81B9-4EE9-B3B9-48FF3EFF1BD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5816,7 +5852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA05BA4-CD0D-46D0-9C25-5F3FFF03D4DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5837,15 +5873,15 @@
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
@@ -5854,23 +5890,23 @@
       <c r="C5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="J5" s="50" t="s">
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="J5" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="N5" s="47" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="N5" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="48"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="69"/>
     </row>
     <row r="6" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -5879,25 +5915,25 @@
       <c r="C6" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="J6" s="51" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="J6" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="51"/>
+      <c r="K6" s="70"/>
       <c r="L6" s="10">
         <f>SUM(,)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="49"/>
+      <c r="O6" s="71"/>
       <c r="P6" s="10">
         <f>SUMIF(B40:B47,G40,E40:E47)</f>
         <v>56000</v>
@@ -5910,25 +5946,25 @@
       <c r="C7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="J7" s="51" t="s">
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="J7" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="51"/>
+      <c r="K7" s="70"/>
       <c r="L7" s="10">
         <f>AVERAGE(,)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="49" t="s">
+      <c r="N7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="49"/>
+      <c r="O7" s="71"/>
       <c r="P7" s="10" t="e">
         <f>AVERAGEIF(K51:K51,o,L51:L51)</f>
         <v>#DIV/0!</v>
@@ -5941,25 +5977,25 @@
       <c r="C8" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="J8" s="51" t="s">
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="J8" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="51"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="10" t="e">
         <f>CHOOSE(,)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="49" t="s">
+      <c r="N8" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="49"/>
+      <c r="O8" s="71"/>
       <c r="P8" s="10" t="e">
         <f>COUNTIF(#REF!,0)</f>
         <v>#REF!</v>
@@ -5972,25 +6008,25 @@
       <c r="C9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="J9" s="51" t="s">
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="J9" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="51"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="10" t="b">
         <f>AND(,)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="49"/>
+      <c r="O9" s="71"/>
       <c r="P9" s="10" t="e">
         <f>VLOOKUP(,,,)</f>
         <v>#N/A</v>
@@ -6003,25 +6039,25 @@
       <c r="C10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="J10" s="51" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="J10" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="51"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="10" t="b">
         <f>OR(,)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="49"/>
+      <c r="O10" s="71"/>
       <c r="P10" s="10" t="e">
         <f>MATCH(,,)</f>
         <v>#N/A</v>
@@ -6034,25 +6070,25 @@
       <c r="C11" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="J11" s="51" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="J11" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="51"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="10">
         <f>STDEV(,)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="49" t="s">
+      <c r="N11" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="49"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="10" t="e">
         <f>INDEX(,,)</f>
         <v>#VALUE!</v>
@@ -6065,43 +6101,43 @@
       <c r="C12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="J12" s="51" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="J12" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="51"/>
+      <c r="K12" s="70"/>
       <c r="L12" s="10" t="str">
         <f>CONCATENATE(,)</f>
         <v/>
       </c>
-      <c r="N12" s="49" t="s">
+      <c r="N12" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="49"/>
+      <c r="O12" s="71"/>
       <c r="P12" s="10">
         <f>TRANSPOSE(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="51" t="s">
+      <c r="J13" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="51"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="10">
         <f>MAX(,)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="49"/>
+      <c r="O13" s="71"/>
       <c r="P13" s="10" t="e">
         <f>DSUM(J7:K8,,)</f>
         <v>#VALUE!</v>
@@ -6109,18 +6145,18 @@
     </row>
     <row r="14" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="J14" s="51" t="s">
+      <c r="J14" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="51"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="10">
         <f>MIN(,)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="49"/>
+      <c r="O14" s="71"/>
       <c r="P14" s="10">
         <f>ROWS(0)</f>
         <v>1</v>
@@ -6139,18 +6175,18 @@
       <c r="E15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="51"/>
+      <c r="K15" s="70"/>
       <c r="L15" s="10">
         <f>COUNT(0)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="49" t="s">
+      <c r="N15" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="O15" s="49"/>
+      <c r="O15" s="71"/>
       <c r="P15" s="10">
         <f>COUNTBLANK(H62:I62)</f>
         <v>2</v>
@@ -6286,10 +6322,10 @@
       <c r="B39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="48"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="11" t="s">
         <v>60</v>
       </c>
@@ -6304,10 +6340,10 @@
       <c r="B40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="71"/>
       <c r="E40" s="12">
         <v>5000</v>
       </c>
@@ -6320,10 +6356,10 @@
       <c r="B41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="12">
         <v>1200</v>
       </c>
@@ -6332,10 +6368,10 @@
       <c r="B42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="49"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="12">
         <v>38000</v>
       </c>
@@ -6344,10 +6380,10 @@
       <c r="B43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="49"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="12">
         <v>42000</v>
       </c>
@@ -6356,10 +6392,10 @@
       <c r="B44" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="71"/>
       <c r="E44" s="12">
         <v>54000</v>
       </c>
@@ -6368,10 +6404,10 @@
       <c r="B45" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="71"/>
       <c r="E45" s="12">
         <v>1000</v>
       </c>
@@ -6380,10 +6416,10 @@
       <c r="B46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="49"/>
+      <c r="D46" s="71"/>
       <c r="E46" s="12">
         <v>25000</v>
       </c>
@@ -6392,10 +6428,10 @@
       <c r="B47" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="49"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="12">
         <v>18000</v>
       </c>
@@ -6413,6 +6449,30 @@
     <row r="61" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="N12:O12"/>
@@ -6429,34 +6489,10 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40" xr:uid="{6E8280DD-149A-4B86-AF1E-C2FBCF069F1F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40">
       <formula1>"롯데마트,집앞슈퍼,이마트,구포시장,옥션"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6466,7 +6502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CD858D-6931-4F03-BE37-174A0A68F508}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6500,10 +6536,10 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J3" s="26"/>
-      <c r="K3" s="55" t="s">
+      <c r="K3" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="55"/>
+      <c r="L3" s="76"/>
       <c r="M3" s="27"/>
       <c r="N3" s="17" t="s">
         <v>30</v>
@@ -6584,7 +6620,7 @@
       <c r="M8" s="27"/>
       <c r="N8" s="30" t="e">
         <f>성명</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O8" s="31"/>
       <c r="P8" s="29"/>
@@ -6726,7 +6762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2864B44C-58A7-405A-BED7-0030D2E622DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G9"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -6856,7 +6892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6268FA88-3E58-4771-A84F-017C80CDF697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -6986,20 +7022,20 @@
       <c r="H7" s="38"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E12" t="e">
@@ -7019,11 +7055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98798D8B-7C91-414E-9D8A-BB5169D8921D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7031,14 +7067,14 @@
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="45" customWidth="1"/>
     <col min="5" max="5" width="4.25" customWidth="1"/>
     <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="63" t="s">
         <v>449</v>
       </c>
     </row>
@@ -7075,13 +7111,13 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="64" t="s">
         <v>462</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="62"/>
       <c r="F6" s="43" t="s">
         <v>4</v>
       </c>
@@ -7097,8 +7133,8 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="49"/>
-      <c r="C7" s="77" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="65" t="s">
         <v>463</v>
       </c>
       <c r="D7" s="43"/>
@@ -7117,13 +7153,13 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="64" t="s">
         <v>453</v>
       </c>
-      <c r="D8" s="74"/>
+      <c r="D8" s="62"/>
       <c r="F8" s="43" t="s">
         <v>6</v>
       </c>
@@ -7139,11 +7175,11 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="49"/>
-      <c r="C9" s="76" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="D9" s="74"/>
+      <c r="D9" s="62"/>
       <c r="F9" s="43" t="s">
         <v>7</v>
       </c>
@@ -7159,11 +7195,11 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="D10" s="74"/>
+      <c r="D10" s="62"/>
       <c r="F10" s="43" t="s">
         <v>8</v>
       </c>
@@ -7179,11 +7215,11 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="49"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="64" t="s">
         <v>456</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="62"/>
       <c r="F11" s="43" t="s">
         <v>27</v>
       </c>
@@ -7193,13 +7229,13 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="71" t="s">
         <v>457</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="62"/>
       <c r="F12" s="43" t="s">
         <v>466</v>
       </c>
@@ -7209,18 +7245,18 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="49"/>
-      <c r="C14" s="76" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="D14" s="74"/>
+      <c r="D14" s="62"/>
       <c r="F14" s="14" t="s">
         <v>467</v>
       </c>
@@ -7229,8 +7265,8 @@
       <c r="B15" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7245,7 +7281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6145C469-5A22-4C87-AEA3-146B223BEAEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7255,9 +7291,9 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.75" customWidth="1"/>
     <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
@@ -7274,3147 +7310,3147 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="64" t="s">
+      <c r="K2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="64" t="s">
+      <c r="O2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="65" t="s">
+      <c r="P2" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="66">
+      <c r="B3" s="54">
         <v>1</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="54">
         <v>101</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="J3" s="66">
+      <c r="J3" s="54">
         <v>201</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="54">
         <v>301</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="50" t="s">
         <v>432</v>
       </c>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="55" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="68">
+      <c r="B4" s="56">
         <v>2</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="56">
         <v>102</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="68">
+      <c r="J4" s="56">
         <v>202</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="N4" s="68">
+      <c r="N4" s="56">
         <v>302</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P4" s="69" t="s">
+      <c r="P4" s="57" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="68">
+      <c r="B5" s="56">
         <v>3</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="56">
         <v>103</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="J5" s="68">
+      <c r="J5" s="56">
         <v>203</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="N5" s="68">
+      <c r="N5" s="56">
         <v>303</v>
       </c>
-      <c r="O5" s="58" t="s">
+      <c r="O5" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="57" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="68">
+      <c r="B6" s="56">
         <v>4</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="56">
         <v>104</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="56">
         <v>204</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="L6" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="56">
         <v>304</v>
       </c>
-      <c r="O6" s="58" t="s">
+      <c r="O6" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P6" s="69" t="s">
+      <c r="P6" s="57" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="68">
+      <c r="B7" s="56">
         <v>5</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="56">
         <v>105</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="J7" s="68">
+      <c r="J7" s="56">
         <v>205</v>
       </c>
-      <c r="K7" s="58" t="s">
+      <c r="K7" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L7" s="69" t="s">
+      <c r="L7" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="56">
         <v>305</v>
       </c>
-      <c r="O7" s="58" t="s">
+      <c r="O7" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P7" s="69" t="s">
+      <c r="P7" s="57" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="68">
+      <c r="B8" s="56">
         <v>6</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="56">
         <v>106</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="69" t="s">
+      <c r="H8" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="56">
         <v>206</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L8" s="69" t="s">
+      <c r="L8" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="N8" s="68">
+      <c r="N8" s="56">
         <v>306</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P8" s="69" t="s">
+      <c r="P8" s="57" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="68">
+      <c r="B9" s="56">
         <v>7</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="56">
         <v>107</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="56">
         <v>207</v>
       </c>
-      <c r="K9" s="58" t="s">
+      <c r="K9" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L9" s="69" t="s">
+      <c r="L9" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="N9" s="68">
+      <c r="N9" s="56">
         <v>307</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P9" s="69" t="s">
+      <c r="P9" s="57" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="68">
+      <c r="B10" s="56">
         <v>8</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="56">
         <v>108</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="56">
         <v>208</v>
       </c>
-      <c r="K10" s="58" t="s">
+      <c r="K10" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L10" s="69" t="s">
+      <c r="L10" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="56">
         <v>308</v>
       </c>
-      <c r="O10" s="58" t="s">
+      <c r="O10" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="57" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="68">
+      <c r="B11" s="56">
         <v>9</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="56">
         <v>109</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="56">
         <v>209</v>
       </c>
-      <c r="K11" s="58" t="s">
+      <c r="K11" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L11" s="69" t="s">
+      <c r="L11" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="56">
         <v>309</v>
       </c>
-      <c r="O11" s="58" t="s">
+      <c r="O11" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P11" s="69" t="s">
+      <c r="P11" s="57" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="68">
+      <c r="B12" s="56">
         <v>10</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="56">
         <v>110</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="56">
         <v>210</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L12" s="69" t="s">
+      <c r="L12" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="56">
         <v>310</v>
       </c>
-      <c r="O12" s="58" t="s">
+      <c r="O12" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P12" s="69" t="s">
+      <c r="P12" s="57" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="68">
+      <c r="B13" s="56">
         <v>11</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="56">
         <v>111</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="56">
         <v>211</v>
       </c>
-      <c r="K13" s="58" t="s">
+      <c r="K13" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L13" s="69" t="s">
+      <c r="L13" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="56">
         <v>311</v>
       </c>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="57" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="68">
+      <c r="B14" s="56">
         <v>12</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="56">
         <v>112</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="56">
         <v>212</v>
       </c>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="56">
         <v>312</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P14" s="69" t="s">
+      <c r="P14" s="57" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="68">
+      <c r="B15" s="56">
         <v>13</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="56">
         <v>113</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="56">
         <v>213</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L15" s="69" t="s">
+      <c r="L15" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="N15" s="68">
+      <c r="N15" s="56">
         <v>313</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="P15" s="57" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="68">
+      <c r="B16" s="56">
         <v>14</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="56">
         <v>114</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="69" t="s">
+      <c r="H16" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="56">
         <v>214</v>
       </c>
-      <c r="K16" s="58" t="s">
+      <c r="K16" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L16" s="69" t="s">
+      <c r="L16" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="56">
         <v>314</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P16" s="69" t="s">
+      <c r="P16" s="57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="68">
+      <c r="B17" s="56">
         <v>15</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="56">
         <v>115</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H17" s="69" t="s">
+      <c r="H17" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="J17" s="68">
+      <c r="J17" s="56">
         <v>215</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L17" s="69" t="s">
+      <c r="L17" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="N17" s="68">
+      <c r="N17" s="56">
         <v>315</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P17" s="69" t="s">
+      <c r="P17" s="57" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="68">
+      <c r="B18" s="56">
         <v>16</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="56">
         <v>116</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H18" s="69" t="s">
+      <c r="H18" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="56">
         <v>216</v>
       </c>
-      <c r="K18" s="58" t="s">
+      <c r="K18" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="N18" s="68">
+      <c r="N18" s="56">
         <v>316</v>
       </c>
-      <c r="O18" s="58" t="s">
+      <c r="O18" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P18" s="69" t="s">
+      <c r="P18" s="57" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="68">
+      <c r="B19" s="56">
         <v>17</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="56">
         <v>117</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="69" t="s">
+      <c r="H19" s="57" t="s">
         <v>259</v>
       </c>
-      <c r="J19" s="68">
+      <c r="J19" s="56">
         <v>217</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K19" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L19" s="69" t="s">
+      <c r="L19" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="N19" s="68">
+      <c r="N19" s="56">
         <v>317</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P19" s="69" t="s">
+      <c r="P19" s="57" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="68">
+      <c r="B20" s="56">
         <v>18</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="56">
         <v>118</v>
       </c>
-      <c r="G20" s="58" t="s">
+      <c r="G20" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="69" t="s">
+      <c r="H20" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="56">
         <v>218</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L20" s="69" t="s">
+      <c r="L20" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="N20" s="68">
+      <c r="N20" s="56">
         <v>318</v>
       </c>
-      <c r="O20" s="58" t="s">
+      <c r="O20" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P20" s="69" t="s">
+      <c r="P20" s="57" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="68">
+      <c r="B21" s="56">
         <v>19</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="56">
         <v>119</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H21" s="69" t="s">
+      <c r="H21" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="J21" s="68">
+      <c r="J21" s="56">
         <v>219</v>
       </c>
-      <c r="K21" s="58" t="s">
+      <c r="K21" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="69" t="s">
+      <c r="L21" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="N21" s="68">
+      <c r="N21" s="56">
         <v>319</v>
       </c>
-      <c r="O21" s="58" t="s">
+      <c r="O21" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P21" s="69" t="s">
+      <c r="P21" s="57" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="68">
+      <c r="B22" s="56">
         <v>20</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="56">
         <v>120</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H22" s="69" t="s">
+      <c r="H22" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="56">
         <v>220</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="69" t="s">
+      <c r="L22" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="N22" s="68">
+      <c r="N22" s="56">
         <v>320</v>
       </c>
-      <c r="O22" s="58" t="s">
+      <c r="O22" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P22" s="69" t="s">
+      <c r="P22" s="57" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="68">
+      <c r="B23" s="56">
         <v>21</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="56">
         <v>121</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H23" s="69" t="s">
+      <c r="H23" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="68">
+      <c r="J23" s="56">
         <v>221</v>
       </c>
-      <c r="K23" s="58" t="s">
+      <c r="K23" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L23" s="69" t="s">
+      <c r="L23" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="N23" s="68">
+      <c r="N23" s="56">
         <v>321</v>
       </c>
-      <c r="O23" s="58" t="s">
+      <c r="O23" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P23" s="69" t="s">
+      <c r="P23" s="57" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="68">
+      <c r="B24" s="56">
         <v>22</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="56">
         <v>122</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H24" s="69" t="s">
+      <c r="H24" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="56">
         <v>222</v>
       </c>
-      <c r="K24" s="58" t="s">
+      <c r="K24" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="N24" s="68">
+      <c r="N24" s="56">
         <v>322</v>
       </c>
-      <c r="O24" s="58" t="s">
+      <c r="O24" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="P24" s="69" t="s">
+      <c r="P24" s="57" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="68">
+      <c r="B25" s="56">
         <v>23</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="68">
+      <c r="F25" s="56">
         <v>123</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H25" s="69" t="s">
+      <c r="H25" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="J25" s="68">
+      <c r="J25" s="56">
         <v>223</v>
       </c>
-      <c r="K25" s="58" t="s">
+      <c r="K25" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L25" s="69" t="s">
+      <c r="L25" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="N25" s="70">
+      <c r="N25" s="58">
         <v>323</v>
       </c>
-      <c r="O25" s="73" t="s">
+      <c r="O25" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="P25" s="72" t="s">
+      <c r="P25" s="60" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="68">
+      <c r="B26" s="56">
         <v>24</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="56">
         <v>124</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H26" s="69" t="s">
+      <c r="H26" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="56">
         <v>224</v>
       </c>
-      <c r="K26" s="58" t="s">
+      <c r="K26" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="57" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="68">
+      <c r="B27" s="56">
         <v>25</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="56">
         <v>125</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="J27" s="68">
+      <c r="J27" s="56">
         <v>225</v>
       </c>
-      <c r="K27" s="58" t="s">
+      <c r="K27" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L27" s="69" t="s">
+      <c r="L27" s="57" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="68">
+      <c r="B28" s="56">
         <v>26</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="56">
         <v>126</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="56">
         <v>226</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L28" s="69" t="s">
+      <c r="L28" s="57" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="68">
+      <c r="B29" s="56">
         <v>27</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="56">
         <v>127</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="J29" s="68">
+      <c r="J29" s="56">
         <v>227</v>
       </c>
-      <c r="K29" s="58" t="s">
+      <c r="K29" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L29" s="69" t="s">
+      <c r="L29" s="57" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="68">
+      <c r="B30" s="56">
         <v>28</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="56">
         <v>128</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="G30" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="56">
         <v>228</v>
       </c>
-      <c r="K30" s="58" t="s">
+      <c r="K30" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="57" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="68">
+      <c r="B31" s="56">
         <v>29</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="56">
         <v>129</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="56">
         <v>229</v>
       </c>
-      <c r="K31" s="58" t="s">
+      <c r="K31" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L31" s="69" t="s">
+      <c r="L31" s="57" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="68">
+      <c r="B32" s="56">
         <v>30</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="56">
         <v>130</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="H32" s="69" t="s">
+      <c r="H32" s="57" t="s">
         <v>272</v>
       </c>
-      <c r="J32" s="68">
+      <c r="J32" s="56">
         <v>230</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L32" s="69" t="s">
+      <c r="L32" s="57" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="68">
+      <c r="B33" s="56">
         <v>31</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="56">
         <v>131</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="J33" s="68">
+      <c r="J33" s="56">
         <v>231</v>
       </c>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L33" s="69" t="s">
+      <c r="L33" s="57" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="68">
+      <c r="B34" s="56">
         <v>32</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="56">
         <v>132</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="J34" s="68">
+      <c r="J34" s="56">
         <v>232</v>
       </c>
-      <c r="K34" s="58" t="s">
+      <c r="K34" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L34" s="69" t="s">
+      <c r="L34" s="57" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="68">
+      <c r="B35" s="56">
         <v>33</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="56">
         <v>133</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="J35" s="68">
+      <c r="J35" s="56">
         <v>233</v>
       </c>
-      <c r="K35" s="58" t="s">
+      <c r="K35" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L35" s="69" t="s">
+      <c r="L35" s="57" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="68">
+      <c r="B36" s="56">
         <v>34</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="56">
         <v>134</v>
       </c>
-      <c r="G36" s="58" t="s">
+      <c r="G36" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="69" t="s">
+      <c r="H36" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="J36" s="68">
+      <c r="J36" s="56">
         <v>234</v>
       </c>
-      <c r="K36" s="58" t="s">
+      <c r="K36" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L36" s="69" t="s">
+      <c r="L36" s="57" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="68">
+      <c r="B37" s="56">
         <v>35</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="56">
         <v>135</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="J37" s="68">
+      <c r="J37" s="56">
         <v>235</v>
       </c>
-      <c r="K37" s="58" t="s">
+      <c r="K37" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L37" s="69" t="s">
+      <c r="L37" s="57" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="68">
+      <c r="B38" s="56">
         <v>36</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="56">
         <v>136</v>
       </c>
-      <c r="G38" s="58" t="s">
+      <c r="G38" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="J38" s="68">
+      <c r="J38" s="56">
         <v>236</v>
       </c>
-      <c r="K38" s="58" t="s">
+      <c r="K38" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L38" s="69" t="s">
+      <c r="L38" s="57" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="68">
+      <c r="B39" s="56">
         <v>37</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="56">
         <v>137</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="J39" s="68">
+      <c r="J39" s="56">
         <v>237</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L39" s="69" t="s">
+      <c r="L39" s="57" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="68">
+      <c r="B40" s="56">
         <v>38</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D40" s="69" t="s">
+      <c r="D40" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="56">
         <v>138</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="J40" s="68">
+      <c r="J40" s="56">
         <v>238</v>
       </c>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L40" s="69" t="s">
+      <c r="L40" s="57" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="68">
+      <c r="B41" s="56">
         <v>39</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="56">
         <v>139</v>
       </c>
-      <c r="G41" s="58" t="s">
+      <c r="G41" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H41" s="69" t="s">
+      <c r="H41" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="J41" s="68">
+      <c r="J41" s="56">
         <v>239</v>
       </c>
-      <c r="K41" s="58" t="s">
+      <c r="K41" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L41" s="69" t="s">
+      <c r="L41" s="57" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="68">
+      <c r="B42" s="56">
         <v>40</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="69" t="s">
+      <c r="D42" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="56">
         <v>140</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H42" s="69" t="s">
+      <c r="H42" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="J42" s="68">
+      <c r="J42" s="56">
         <v>240</v>
       </c>
-      <c r="K42" s="58" t="s">
+      <c r="K42" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L42" s="69" t="s">
+      <c r="L42" s="57" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="68">
+      <c r="B43" s="56">
         <v>41</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="56">
         <v>141</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H43" s="69" t="s">
+      <c r="H43" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="J43" s="68">
+      <c r="J43" s="56">
         <v>241</v>
       </c>
-      <c r="K43" s="58" t="s">
+      <c r="K43" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L43" s="69" t="s">
+      <c r="L43" s="57" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="68">
+      <c r="B44" s="56">
         <v>42</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="68">
+      <c r="F44" s="56">
         <v>142</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="G44" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H44" s="69" t="s">
+      <c r="H44" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="J44" s="68">
+      <c r="J44" s="56">
         <v>242</v>
       </c>
-      <c r="K44" s="58" t="s">
+      <c r="K44" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L44" s="69" t="s">
+      <c r="L44" s="57" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="68">
+      <c r="B45" s="56">
         <v>43</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="69" t="s">
+      <c r="D45" s="57" t="s">
         <v>184</v>
       </c>
-      <c r="F45" s="68">
+      <c r="F45" s="56">
         <v>143</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H45" s="69" t="s">
+      <c r="H45" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="J45" s="68">
+      <c r="J45" s="56">
         <v>243</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L45" s="69" t="s">
+      <c r="L45" s="57" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="68">
+      <c r="B46" s="56">
         <v>44</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="F46" s="68">
+      <c r="F46" s="56">
         <v>144</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H46" s="69" t="s">
+      <c r="H46" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="56">
         <v>244</v>
       </c>
-      <c r="K46" s="58" t="s">
+      <c r="K46" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L46" s="69" t="s">
+      <c r="L46" s="57" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="68">
+      <c r="B47" s="56">
         <v>45</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D47" s="69" t="s">
+      <c r="D47" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="F47" s="68">
+      <c r="F47" s="56">
         <v>145</v>
       </c>
-      <c r="G47" s="58" t="s">
+      <c r="G47" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H47" s="69" t="s">
+      <c r="H47" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="J47" s="68">
+      <c r="J47" s="56">
         <v>245</v>
       </c>
-      <c r="K47" s="58" t="s">
+      <c r="K47" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L47" s="69" t="s">
+      <c r="L47" s="57" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="68">
+      <c r="B48" s="56">
         <v>46</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="F48" s="68">
+      <c r="F48" s="56">
         <v>146</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H48" s="69" t="s">
+      <c r="H48" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="J48" s="68">
+      <c r="J48" s="56">
         <v>246</v>
       </c>
-      <c r="K48" s="58" t="s">
+      <c r="K48" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L48" s="69" t="s">
+      <c r="L48" s="57" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="68">
+      <c r="B49" s="56">
         <v>47</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D49" s="69" t="s">
+      <c r="D49" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F49" s="68">
+      <c r="F49" s="56">
         <v>147</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H49" s="69" t="s">
+      <c r="H49" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="J49" s="68">
+      <c r="J49" s="56">
         <v>247</v>
       </c>
-      <c r="K49" s="58" t="s">
+      <c r="K49" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L49" s="69" t="s">
+      <c r="L49" s="57" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="68">
+      <c r="B50" s="56">
         <v>48</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="69" t="s">
+      <c r="D50" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="F50" s="68">
+      <c r="F50" s="56">
         <v>148</v>
       </c>
-      <c r="G50" s="58" t="s">
+      <c r="G50" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="H50" s="69" t="s">
+      <c r="H50" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="J50" s="68">
+      <c r="J50" s="56">
         <v>248</v>
       </c>
-      <c r="K50" s="58" t="s">
+      <c r="K50" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L50" s="69" t="s">
+      <c r="L50" s="57" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="68">
+      <c r="B51" s="56">
         <v>49</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="69" t="s">
+      <c r="D51" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="68">
+      <c r="F51" s="56">
         <v>149</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H51" s="69" t="s">
+      <c r="H51" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="J51" s="68">
+      <c r="J51" s="56">
         <v>249</v>
       </c>
-      <c r="K51" s="58" t="s">
+      <c r="K51" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L51" s="69" t="s">
+      <c r="L51" s="57" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="68">
+      <c r="B52" s="56">
         <v>50</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="F52" s="68">
+      <c r="F52" s="56">
         <v>150</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="G52" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H52" s="69" t="s">
+      <c r="H52" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="J52" s="68">
+      <c r="J52" s="56">
         <v>250</v>
       </c>
-      <c r="K52" s="58" t="s">
+      <c r="K52" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L52" s="69" t="s">
+      <c r="L52" s="57" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="68">
+      <c r="B53" s="56">
         <v>51</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="F53" s="68">
+      <c r="F53" s="56">
         <v>151</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="G53" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H53" s="69" t="s">
+      <c r="H53" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="68">
+      <c r="J53" s="56">
         <v>251</v>
       </c>
-      <c r="K53" s="58" t="s">
+      <c r="K53" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L53" s="69" t="s">
+      <c r="L53" s="57" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="68">
+      <c r="B54" s="56">
         <v>52</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="F54" s="68">
+      <c r="F54" s="56">
         <v>152</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H54" s="69" t="s">
+      <c r="H54" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="J54" s="68">
+      <c r="J54" s="56">
         <v>252</v>
       </c>
-      <c r="K54" s="58" t="s">
+      <c r="K54" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L54" s="69" t="s">
+      <c r="L54" s="57" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="68">
+      <c r="B55" s="56">
         <v>53</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="69" t="s">
+      <c r="D55" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="68">
+      <c r="F55" s="56">
         <v>153</v>
       </c>
-      <c r="G55" s="58" t="s">
+      <c r="G55" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H55" s="69" t="s">
+      <c r="H55" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="J55" s="68">
+      <c r="J55" s="56">
         <v>253</v>
       </c>
-      <c r="K55" s="58" t="s">
+      <c r="K55" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L55" s="69" t="s">
+      <c r="L55" s="57" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="68">
+      <c r="B56" s="56">
         <v>54</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D56" s="69" t="s">
+      <c r="D56" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F56" s="56">
         <v>154</v>
       </c>
-      <c r="G56" s="58" t="s">
+      <c r="G56" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="H56" s="69" t="s">
+      <c r="H56" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="J56" s="68">
+      <c r="J56" s="56">
         <v>254</v>
       </c>
-      <c r="K56" s="58" t="s">
+      <c r="K56" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L56" s="69" t="s">
+      <c r="L56" s="57" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="68">
+      <c r="B57" s="56">
         <v>55</v>
       </c>
-      <c r="C57" s="60" t="s">
+      <c r="C57" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="69" t="s">
+      <c r="D57" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="F57" s="68">
+      <c r="F57" s="56">
         <v>155</v>
       </c>
-      <c r="G57" s="58" t="s">
+      <c r="G57" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H57" s="69" t="s">
+      <c r="H57" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="J57" s="68">
+      <c r="J57" s="56">
         <v>255</v>
       </c>
-      <c r="K57" s="58" t="s">
+      <c r="K57" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L57" s="69" t="s">
+      <c r="L57" s="57" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="68">
+      <c r="B58" s="56">
         <v>56</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D58" s="69" t="s">
+      <c r="D58" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="F58" s="68">
+      <c r="F58" s="56">
         <v>156</v>
       </c>
-      <c r="G58" s="58" t="s">
+      <c r="G58" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="J58" s="68">
+      <c r="J58" s="56">
         <v>256</v>
       </c>
-      <c r="K58" s="58" t="s">
+      <c r="K58" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L58" s="69" t="s">
+      <c r="L58" s="57" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="68">
+      <c r="B59" s="56">
         <v>57</v>
       </c>
-      <c r="C59" s="60" t="s">
+      <c r="C59" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D59" s="69" t="s">
+      <c r="D59" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="F59" s="68">
+      <c r="F59" s="56">
         <v>157</v>
       </c>
-      <c r="G59" s="58" t="s">
+      <c r="G59" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H59" s="69" t="s">
+      <c r="H59" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="J59" s="68">
+      <c r="J59" s="56">
         <v>257</v>
       </c>
-      <c r="K59" s="58" t="s">
+      <c r="K59" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L59" s="69" t="s">
+      <c r="L59" s="57" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="68">
+      <c r="B60" s="56">
         <v>58</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="69" t="s">
+      <c r="D60" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="F60" s="68">
+      <c r="F60" s="56">
         <v>158</v>
       </c>
-      <c r="G60" s="58" t="s">
+      <c r="G60" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H60" s="69" t="s">
+      <c r="H60" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="J60" s="68">
+      <c r="J60" s="56">
         <v>258</v>
       </c>
-      <c r="K60" s="58" t="s">
+      <c r="K60" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L60" s="69" t="s">
+      <c r="L60" s="57" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="68">
+      <c r="B61" s="56">
         <v>59</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="69" t="s">
+      <c r="D61" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="F61" s="68">
+      <c r="F61" s="56">
         <v>159</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="G61" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H61" s="69" t="s">
+      <c r="H61" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="J61" s="68">
+      <c r="J61" s="56">
         <v>259</v>
       </c>
-      <c r="K61" s="58" t="s">
+      <c r="K61" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L61" s="69" t="s">
+      <c r="L61" s="57" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="68">
+      <c r="B62" s="56">
         <v>60</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="69" t="s">
+      <c r="D62" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="F62" s="68">
+      <c r="F62" s="56">
         <v>160</v>
       </c>
-      <c r="G62" s="58" t="s">
+      <c r="G62" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H62" s="69" t="s">
+      <c r="H62" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="J62" s="68">
+      <c r="J62" s="56">
         <v>260</v>
       </c>
-      <c r="K62" s="58" t="s">
+      <c r="K62" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L62" s="69" t="s">
+      <c r="L62" s="57" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="68">
+      <c r="B63" s="56">
         <v>61</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="69" t="s">
+      <c r="D63" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="68">
+      <c r="F63" s="56">
         <v>161</v>
       </c>
-      <c r="G63" s="58" t="s">
+      <c r="G63" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H63" s="69" t="s">
+      <c r="H63" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J63" s="68">
+      <c r="J63" s="56">
         <v>261</v>
       </c>
-      <c r="K63" s="58" t="s">
+      <c r="K63" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L63" s="69" t="s">
+      <c r="L63" s="57" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="68">
+      <c r="B64" s="56">
         <v>62</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="69" t="s">
+      <c r="D64" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="F64" s="68">
+      <c r="F64" s="56">
         <v>162</v>
       </c>
-      <c r="G64" s="58" t="s">
+      <c r="G64" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H64" s="69" t="s">
+      <c r="H64" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="J64" s="68">
+      <c r="J64" s="56">
         <v>262</v>
       </c>
-      <c r="K64" s="58" t="s">
+      <c r="K64" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L64" s="69" t="s">
+      <c r="L64" s="57" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="68">
+      <c r="B65" s="56">
         <v>63</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="D65" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="F65" s="68">
+      <c r="F65" s="56">
         <v>163</v>
       </c>
-      <c r="G65" s="58" t="s">
+      <c r="G65" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H65" s="69" t="s">
+      <c r="H65" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="J65" s="68">
+      <c r="J65" s="56">
         <v>263</v>
       </c>
-      <c r="K65" s="58" t="s">
+      <c r="K65" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L65" s="69" t="s">
+      <c r="L65" s="57" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="68">
+      <c r="B66" s="56">
         <v>64</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="69" t="s">
+      <c r="D66" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="F66" s="68">
+      <c r="F66" s="56">
         <v>164</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="G66" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H66" s="69" t="s">
+      <c r="H66" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="J66" s="68">
+      <c r="J66" s="56">
         <v>264</v>
       </c>
-      <c r="K66" s="58" t="s">
+      <c r="K66" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L66" s="69" t="s">
+      <c r="L66" s="57" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B67" s="68">
+      <c r="B67" s="56">
         <v>65</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="69" t="s">
+      <c r="D67" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="F67" s="68">
+      <c r="F67" s="56">
         <v>165</v>
       </c>
-      <c r="G67" s="58" t="s">
+      <c r="G67" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H67" s="69" t="s">
+      <c r="H67" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="J67" s="68">
+      <c r="J67" s="56">
         <v>265</v>
       </c>
-      <c r="K67" s="58" t="s">
+      <c r="K67" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L67" s="69" t="s">
+      <c r="L67" s="57" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="68">
+      <c r="B68" s="56">
         <v>66</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="69" t="s">
+      <c r="D68" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="F68" s="68">
+      <c r="F68" s="56">
         <v>166</v>
       </c>
-      <c r="G68" s="58" t="s">
+      <c r="G68" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H68" s="69" t="s">
+      <c r="H68" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="J68" s="68">
+      <c r="J68" s="56">
         <v>266</v>
       </c>
-      <c r="K68" s="58" t="s">
+      <c r="K68" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L68" s="69" t="s">
+      <c r="L68" s="57" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="68">
+      <c r="B69" s="56">
         <v>67</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D69" s="69" t="s">
+      <c r="D69" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="F69" s="68">
+      <c r="F69" s="56">
         <v>167</v>
       </c>
-      <c r="G69" s="58" t="s">
+      <c r="G69" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H69" s="69" t="s">
+      <c r="H69" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="J69" s="68">
+      <c r="J69" s="56">
         <v>267</v>
       </c>
-      <c r="K69" s="58" t="s">
+      <c r="K69" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L69" s="69" t="s">
+      <c r="L69" s="57" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="68">
+      <c r="B70" s="56">
         <v>68</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="69" t="s">
+      <c r="D70" s="57" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="68">
+      <c r="F70" s="56">
         <v>168</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="G70" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H70" s="69" t="s">
+      <c r="H70" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="J70" s="68">
+      <c r="J70" s="56">
         <v>268</v>
       </c>
-      <c r="K70" s="58" t="s">
+      <c r="K70" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L70" s="69" t="s">
+      <c r="L70" s="57" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="68">
+      <c r="B71" s="56">
         <v>69</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D71" s="69" t="s">
+      <c r="D71" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="F71" s="68">
+      <c r="F71" s="56">
         <v>169</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="G71" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="H71" s="69" t="s">
+      <c r="H71" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="J71" s="68">
+      <c r="J71" s="56">
         <v>269</v>
       </c>
-      <c r="K71" s="58" t="s">
+      <c r="K71" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L71" s="69" t="s">
+      <c r="L71" s="57" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="68">
+      <c r="B72" s="56">
         <v>70</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C72" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="69" t="s">
+      <c r="D72" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="F72" s="68">
+      <c r="F72" s="56">
         <v>170</v>
       </c>
-      <c r="G72" s="58" t="s">
+      <c r="G72" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H72" s="69" t="s">
+      <c r="H72" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="J72" s="68">
+      <c r="J72" s="56">
         <v>270</v>
       </c>
-      <c r="K72" s="58" t="s">
+      <c r="K72" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L72" s="69" t="s">
+      <c r="L72" s="57" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="68">
+      <c r="B73" s="56">
         <v>71</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D73" s="69" t="s">
+      <c r="D73" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="F73" s="68">
+      <c r="F73" s="56">
         <v>171</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="G73" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H73" s="69" t="s">
+      <c r="H73" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="J73" s="68">
+      <c r="J73" s="56">
         <v>271</v>
       </c>
-      <c r="K73" s="58" t="s">
+      <c r="K73" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L73" s="69" t="s">
+      <c r="L73" s="57" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="68">
+      <c r="B74" s="56">
         <v>72</v>
       </c>
-      <c r="C74" s="60" t="s">
+      <c r="C74" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D74" s="69" t="s">
+      <c r="D74" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="F74" s="68">
+      <c r="F74" s="56">
         <v>172</v>
       </c>
-      <c r="G74" s="58" t="s">
+      <c r="G74" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H74" s="69" t="s">
+      <c r="H74" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="J74" s="68">
+      <c r="J74" s="56">
         <v>272</v>
       </c>
-      <c r="K74" s="58" t="s">
+      <c r="K74" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L74" s="69" t="s">
+      <c r="L74" s="57" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="68">
+      <c r="B75" s="56">
         <v>73</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D75" s="69" t="s">
+      <c r="D75" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="F75" s="68">
+      <c r="F75" s="56">
         <v>173</v>
       </c>
-      <c r="G75" s="58" t="s">
+      <c r="G75" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H75" s="69" t="s">
+      <c r="H75" s="57" t="s">
         <v>310</v>
       </c>
-      <c r="J75" s="68">
+      <c r="J75" s="56">
         <v>273</v>
       </c>
-      <c r="K75" s="58" t="s">
+      <c r="K75" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L75" s="69" t="s">
+      <c r="L75" s="57" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="68">
+      <c r="B76" s="56">
         <v>74</v>
       </c>
-      <c r="C76" s="60" t="s">
+      <c r="C76" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="57" t="s">
         <v>215</v>
       </c>
-      <c r="F76" s="68">
+      <c r="F76" s="56">
         <v>174</v>
       </c>
-      <c r="G76" s="58" t="s">
+      <c r="G76" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H76" s="69" t="s">
+      <c r="H76" s="57" t="s">
         <v>311</v>
       </c>
-      <c r="J76" s="68">
+      <c r="J76" s="56">
         <v>274</v>
       </c>
-      <c r="K76" s="58" t="s">
+      <c r="K76" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L76" s="69" t="s">
+      <c r="L76" s="57" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="68">
+      <c r="B77" s="56">
         <v>75</v>
       </c>
-      <c r="C77" s="60" t="s">
+      <c r="C77" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="68">
+      <c r="F77" s="56">
         <v>175</v>
       </c>
-      <c r="G77" s="58" t="s">
+      <c r="G77" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H77" s="69" t="s">
+      <c r="H77" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="J77" s="68">
+      <c r="J77" s="56">
         <v>275</v>
       </c>
-      <c r="K77" s="58" t="s">
+      <c r="K77" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L77" s="69" t="s">
+      <c r="L77" s="57" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="68">
+      <c r="B78" s="56">
         <v>76</v>
       </c>
-      <c r="C78" s="60" t="s">
+      <c r="C78" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D78" s="69" t="s">
+      <c r="D78" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="F78" s="68">
+      <c r="F78" s="56">
         <v>176</v>
       </c>
-      <c r="G78" s="58" t="s">
+      <c r="G78" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H78" s="69" t="s">
+      <c r="H78" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="J78" s="68">
+      <c r="J78" s="56">
         <v>276</v>
       </c>
-      <c r="K78" s="58" t="s">
+      <c r="K78" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L78" s="69" t="s">
+      <c r="L78" s="57" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="68">
+      <c r="B79" s="56">
         <v>77</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D79" s="69" t="s">
+      <c r="D79" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="F79" s="68">
+      <c r="F79" s="56">
         <v>177</v>
       </c>
-      <c r="G79" s="58" t="s">
+      <c r="G79" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H79" s="69" t="s">
+      <c r="H79" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="J79" s="68">
+      <c r="J79" s="56">
         <v>277</v>
       </c>
-      <c r="K79" s="58" t="s">
+      <c r="K79" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L79" s="69" t="s">
+      <c r="L79" s="57" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="68">
+      <c r="B80" s="56">
         <v>78</v>
       </c>
-      <c r="C80" s="60" t="s">
+      <c r="C80" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D80" s="69" t="s">
+      <c r="D80" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="F80" s="68">
+      <c r="F80" s="56">
         <v>178</v>
       </c>
-      <c r="G80" s="58" t="s">
+      <c r="G80" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H80" s="69" t="s">
+      <c r="H80" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="J80" s="68">
+      <c r="J80" s="56">
         <v>278</v>
       </c>
-      <c r="K80" s="58" t="s">
+      <c r="K80" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L80" s="69" t="s">
+      <c r="L80" s="57" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B81" s="68">
+      <c r="B81" s="56">
         <v>79</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D81" s="69" t="s">
+      <c r="D81" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="68">
+      <c r="F81" s="56">
         <v>179</v>
       </c>
-      <c r="G81" s="58" t="s">
+      <c r="G81" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H81" s="69" t="s">
+      <c r="H81" s="57" t="s">
         <v>316</v>
       </c>
-      <c r="J81" s="68">
+      <c r="J81" s="56">
         <v>279</v>
       </c>
-      <c r="K81" s="58" t="s">
+      <c r="K81" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L81" s="69" t="s">
+      <c r="L81" s="57" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="68">
+      <c r="B82" s="56">
         <v>80</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C82" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D82" s="69" t="s">
+      <c r="D82" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="F82" s="68">
+      <c r="F82" s="56">
         <v>180</v>
       </c>
-      <c r="G82" s="58" t="s">
+      <c r="G82" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H82" s="69" t="s">
+      <c r="H82" s="57" t="s">
         <v>317</v>
       </c>
-      <c r="J82" s="68">
+      <c r="J82" s="56">
         <v>280</v>
       </c>
-      <c r="K82" s="58" t="s">
+      <c r="K82" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L82" s="69" t="s">
+      <c r="L82" s="57" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="68">
+      <c r="B83" s="56">
         <v>81</v>
       </c>
-      <c r="C83" s="60" t="s">
+      <c r="C83" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="69" t="s">
+      <c r="D83" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="68">
+      <c r="F83" s="56">
         <v>181</v>
       </c>
-      <c r="G83" s="58" t="s">
+      <c r="G83" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H83" s="69" t="s">
+      <c r="H83" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="J83" s="68">
+      <c r="J83" s="56">
         <v>281</v>
       </c>
-      <c r="K83" s="58" t="s">
+      <c r="K83" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L83" s="69" t="s">
+      <c r="L83" s="57" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="68">
+      <c r="B84" s="56">
         <v>82</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="C84" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D84" s="69" t="s">
+      <c r="D84" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="68">
+      <c r="F84" s="56">
         <v>182</v>
       </c>
-      <c r="G84" s="58" t="s">
+      <c r="G84" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H84" s="69" t="s">
+      <c r="H84" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="J84" s="68">
+      <c r="J84" s="56">
         <v>282</v>
       </c>
-      <c r="K84" s="58" t="s">
+      <c r="K84" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L84" s="69" t="s">
+      <c r="L84" s="57" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="68">
+      <c r="B85" s="56">
         <v>83</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D85" s="69" t="s">
+      <c r="D85" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="68">
+      <c r="F85" s="56">
         <v>183</v>
       </c>
-      <c r="G85" s="58" t="s">
+      <c r="G85" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H85" s="69" t="s">
+      <c r="H85" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="J85" s="68">
+      <c r="J85" s="56">
         <v>283</v>
       </c>
-      <c r="K85" s="58" t="s">
+      <c r="K85" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L85" s="69" t="s">
+      <c r="L85" s="57" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="68">
+      <c r="B86" s="56">
         <v>84</v>
       </c>
-      <c r="C86" s="60" t="s">
+      <c r="C86" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D86" s="69" t="s">
+      <c r="D86" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="F86" s="68">
+      <c r="F86" s="56">
         <v>184</v>
       </c>
-      <c r="G86" s="58" t="s">
+      <c r="G86" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="69" t="s">
+      <c r="H86" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="J86" s="68">
+      <c r="J86" s="56">
         <v>284</v>
       </c>
-      <c r="K86" s="58" t="s">
+      <c r="K86" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L86" s="69" t="s">
+      <c r="L86" s="57" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="68">
+      <c r="B87" s="56">
         <v>85</v>
       </c>
-      <c r="C87" s="60" t="s">
+      <c r="C87" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D87" s="69" t="s">
+      <c r="D87" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="F87" s="68">
+      <c r="F87" s="56">
         <v>185</v>
       </c>
-      <c r="G87" s="58" t="s">
+      <c r="G87" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H87" s="69" t="s">
+      <c r="H87" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="J87" s="68">
+      <c r="J87" s="56">
         <v>285</v>
       </c>
-      <c r="K87" s="58" t="s">
+      <c r="K87" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L87" s="69" t="s">
+      <c r="L87" s="57" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="68">
+      <c r="B88" s="56">
         <v>86</v>
       </c>
-      <c r="C88" s="60" t="s">
+      <c r="C88" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D88" s="69" t="s">
+      <c r="D88" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="F88" s="68">
+      <c r="F88" s="56">
         <v>186</v>
       </c>
-      <c r="G88" s="58" t="s">
+      <c r="G88" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H88" s="69" t="s">
+      <c r="H88" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="J88" s="68">
+      <c r="J88" s="56">
         <v>286</v>
       </c>
-      <c r="K88" s="58" t="s">
+      <c r="K88" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L88" s="69" t="s">
+      <c r="L88" s="57" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="68">
+      <c r="B89" s="56">
         <v>87</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="69" t="s">
+      <c r="D89" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="F89" s="68">
+      <c r="F89" s="56">
         <v>187</v>
       </c>
-      <c r="G89" s="58" t="s">
+      <c r="G89" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H89" s="69" t="s">
+      <c r="H89" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="J89" s="68">
+      <c r="J89" s="56">
         <v>287</v>
       </c>
-      <c r="K89" s="58" t="s">
+      <c r="K89" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L89" s="69" t="s">
+      <c r="L89" s="57" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="68">
+      <c r="B90" s="56">
         <v>88</v>
       </c>
-      <c r="C90" s="60" t="s">
+      <c r="C90" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D90" s="69" t="s">
+      <c r="D90" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="F90" s="68">
+      <c r="F90" s="56">
         <v>188</v>
       </c>
-      <c r="G90" s="58" t="s">
+      <c r="G90" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H90" s="69" t="s">
+      <c r="H90" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="J90" s="68">
+      <c r="J90" s="56">
         <v>288</v>
       </c>
-      <c r="K90" s="58" t="s">
+      <c r="K90" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L90" s="69" t="s">
+      <c r="L90" s="57" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="68">
+      <c r="B91" s="56">
         <v>89</v>
       </c>
-      <c r="C91" s="60" t="s">
+      <c r="C91" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="D91" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="F91" s="68">
+      <c r="F91" s="56">
         <v>189</v>
       </c>
-      <c r="G91" s="58" t="s">
+      <c r="G91" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H91" s="69" t="s">
+      <c r="H91" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="J91" s="68">
+      <c r="J91" s="56">
         <v>289</v>
       </c>
-      <c r="K91" s="58" t="s">
+      <c r="K91" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L91" s="69" t="s">
+      <c r="L91" s="57" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="68">
+      <c r="B92" s="56">
         <v>90</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="68">
+      <c r="F92" s="56">
         <v>190</v>
       </c>
-      <c r="G92" s="58" t="s">
+      <c r="G92" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H92" s="69" t="s">
+      <c r="H92" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="J92" s="68">
+      <c r="J92" s="56">
         <v>290</v>
       </c>
-      <c r="K92" s="58" t="s">
+      <c r="K92" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L92" s="69" t="s">
+      <c r="L92" s="57" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="68">
+      <c r="B93" s="56">
         <v>91</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D93" s="69" t="s">
+      <c r="D93" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="68">
+      <c r="F93" s="56">
         <v>191</v>
       </c>
-      <c r="G93" s="58" t="s">
+      <c r="G93" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H93" s="69" t="s">
+      <c r="H93" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="J93" s="68">
+      <c r="J93" s="56">
         <v>291</v>
       </c>
-      <c r="K93" s="58" t="s">
+      <c r="K93" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L93" s="69" t="s">
+      <c r="L93" s="57" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="68">
+      <c r="B94" s="56">
         <v>92</v>
       </c>
-      <c r="C94" s="60" t="s">
+      <c r="C94" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D94" s="69" t="s">
+      <c r="D94" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F94" s="68">
+      <c r="F94" s="56">
         <v>192</v>
       </c>
-      <c r="G94" s="58" t="s">
+      <c r="G94" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H94" s="69" t="s">
+      <c r="H94" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="J94" s="68">
+      <c r="J94" s="56">
         <v>292</v>
       </c>
-      <c r="K94" s="58" t="s">
+      <c r="K94" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L94" s="69" t="s">
+      <c r="L94" s="57" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="68">
+      <c r="B95" s="56">
         <v>93</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="F95" s="68">
+      <c r="F95" s="56">
         <v>193</v>
       </c>
-      <c r="G95" s="58" t="s">
+      <c r="G95" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H95" s="69" t="s">
+      <c r="H95" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="J95" s="68">
+      <c r="J95" s="56">
         <v>293</v>
       </c>
-      <c r="K95" s="58" t="s">
+      <c r="K95" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L95" s="69" t="s">
+      <c r="L95" s="57" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="68">
+      <c r="B96" s="56">
         <v>94</v>
       </c>
-      <c r="C96" s="60" t="s">
+      <c r="C96" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="F96" s="68">
+      <c r="F96" s="56">
         <v>194</v>
       </c>
-      <c r="G96" s="58" t="s">
+      <c r="G96" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H96" s="69" t="s">
+      <c r="H96" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="J96" s="68">
+      <c r="J96" s="56">
         <v>294</v>
       </c>
-      <c r="K96" s="58" t="s">
+      <c r="K96" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L96" s="69" t="s">
+      <c r="L96" s="57" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B97" s="68">
+      <c r="B97" s="56">
         <v>95</v>
       </c>
-      <c r="C97" s="60" t="s">
+      <c r="C97" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="D97" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="F97" s="68">
+      <c r="F97" s="56">
         <v>195</v>
       </c>
-      <c r="G97" s="58" t="s">
+      <c r="G97" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H97" s="69" t="s">
+      <c r="H97" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="J97" s="68">
+      <c r="J97" s="56">
         <v>295</v>
       </c>
-      <c r="K97" s="58" t="s">
+      <c r="K97" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L97" s="69" t="s">
+      <c r="L97" s="57" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B98" s="68">
+      <c r="B98" s="56">
         <v>96</v>
       </c>
-      <c r="C98" s="60" t="s">
+      <c r="C98" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D98" s="69" t="s">
+      <c r="D98" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="F98" s="68">
+      <c r="F98" s="56">
         <v>196</v>
       </c>
-      <c r="G98" s="58" t="s">
+      <c r="G98" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H98" s="69" t="s">
+      <c r="H98" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="J98" s="68">
+      <c r="J98" s="56">
         <v>296</v>
       </c>
-      <c r="K98" s="58" t="s">
+      <c r="K98" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L98" s="69" t="s">
+      <c r="L98" s="57" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B99" s="68">
+      <c r="B99" s="56">
         <v>97</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D99" s="69" t="s">
+      <c r="D99" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="F99" s="68">
+      <c r="F99" s="56">
         <v>197</v>
       </c>
-      <c r="G99" s="58" t="s">
+      <c r="G99" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H99" s="69" t="s">
+      <c r="H99" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="J99" s="68">
+      <c r="J99" s="56">
         <v>297</v>
       </c>
-      <c r="K99" s="58" t="s">
+      <c r="K99" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L99" s="69" t="s">
+      <c r="L99" s="57" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="68">
+      <c r="B100" s="56">
         <v>98</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C100" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="69" t="s">
+      <c r="D100" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="F100" s="68">
+      <c r="F100" s="56">
         <v>198</v>
       </c>
-      <c r="G100" s="58" t="s">
+      <c r="G100" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H100" s="69" t="s">
+      <c r="H100" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="J100" s="68">
+      <c r="J100" s="56">
         <v>298</v>
       </c>
-      <c r="K100" s="58" t="s">
+      <c r="K100" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L100" s="69" t="s">
+      <c r="L100" s="57" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B101" s="68">
+      <c r="B101" s="56">
         <v>99</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="69" t="s">
+      <c r="D101" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="F101" s="68">
+      <c r="F101" s="56">
         <v>199</v>
       </c>
-      <c r="G101" s="58" t="s">
+      <c r="G101" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H101" s="69" t="s">
+      <c r="H101" s="57" t="s">
         <v>334</v>
       </c>
-      <c r="J101" s="68">
+      <c r="J101" s="56">
         <v>299</v>
       </c>
-      <c r="K101" s="58" t="s">
+      <c r="K101" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="L101" s="69" t="s">
+      <c r="L101" s="57" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="102" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="70">
+      <c r="B102" s="58">
         <v>100</v>
       </c>
-      <c r="C102" s="71" t="s">
+      <c r="C102" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="D102" s="72" t="s">
+      <c r="D102" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="F102" s="70">
+      <c r="F102" s="58">
         <v>200</v>
       </c>
-      <c r="G102" s="73" t="s">
+      <c r="G102" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="H102" s="72" t="s">
+      <c r="H102" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="J102" s="70">
+      <c r="J102" s="58">
         <v>300</v>
       </c>
-      <c r="K102" s="73" t="s">
+      <c r="K102" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="L102" s="72" t="s">
+      <c r="L102" s="60" t="s">
         <v>134</v>
       </c>
     </row>

--- a/ExcelFunction/함수_01~8필수기초&OT.xlsx
+++ b/ExcelFunction/함수_01~8필수기초&OT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9465" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="함수개념" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="472">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1589,6 +1589,10 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2274,16 +2278,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2292,13 +2293,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5402,7 +5406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5593,8 +5597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5646,7 +5650,9 @@
       <c r="D5" s="1">
         <v>256</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5873,15 +5879,15 @@
       <c r="B3" s="13"/>
     </row>
     <row r="4" spans="2:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
@@ -5890,22 +5896,22 @@
       <c r="C5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="J5" s="72" t="s">
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="J5" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="N5" s="67" t="s">
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="N5" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="75"/>
       <c r="P5" s="69"/>
     </row>
     <row r="6" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5922,18 +5928,18 @@
       <c r="F6" s="73"/>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="70"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="10">
         <f>SUM(,)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="O6" s="71"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="10">
         <f>SUMIF(B40:B47,G40,E40:E47)</f>
         <v>56000</v>
@@ -5953,18 +5959,18 @@
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
       <c r="H7" s="73"/>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="70"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="10">
         <f>AVERAGE(,)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="O7" s="71"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="10" t="e">
         <f>AVERAGEIF(K51:K51,o,L51:L51)</f>
         <v>#DIV/0!</v>
@@ -5984,18 +5990,18 @@
       <c r="F8" s="73"/>
       <c r="G8" s="73"/>
       <c r="H8" s="73"/>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="70"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="10" t="e">
         <f>CHOOSE(,)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="71"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="10" t="e">
         <f>COUNTIF(#REF!,0)</f>
         <v>#REF!</v>
@@ -6015,18 +6021,18 @@
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
       <c r="H9" s="73"/>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="70"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="10" t="b">
         <f>AND(,)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="71"/>
+      <c r="O9" s="70"/>
       <c r="P9" s="10" t="e">
         <f>VLOOKUP(,,,)</f>
         <v>#N/A</v>
@@ -6046,18 +6052,18 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
       <c r="H10" s="73"/>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="70"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="10" t="b">
         <f>OR(,)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="71"/>
+      <c r="O10" s="70"/>
       <c r="P10" s="10" t="e">
         <f>MATCH(,,)</f>
         <v>#N/A</v>
@@ -6077,18 +6083,18 @@
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
       <c r="H11" s="73"/>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="70"/>
+      <c r="K11" s="72"/>
       <c r="L11" s="10">
         <f>STDEV(,)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="O11" s="71"/>
+      <c r="O11" s="70"/>
       <c r="P11" s="10" t="e">
         <f>INDEX(,,)</f>
         <v>#VALUE!</v>
@@ -6108,36 +6114,36 @@
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="70"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="10" t="str">
         <f>CONCATENATE(,)</f>
         <v/>
       </c>
-      <c r="N12" s="71" t="s">
+      <c r="N12" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="71"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="10">
         <f>TRANSPOSE(0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="70"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="10">
         <f>MAX(,)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="71" t="s">
+      <c r="N13" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="71"/>
+      <c r="O13" s="70"/>
       <c r="P13" s="10" t="e">
         <f>DSUM(J7:K8,,)</f>
         <v>#VALUE!</v>
@@ -6145,18 +6151,18 @@
     </row>
     <row r="14" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="K14" s="70"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="10">
         <f>MIN(,)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="71"/>
+      <c r="O14" s="70"/>
       <c r="P14" s="10">
         <f>ROWS(0)</f>
         <v>1</v>
@@ -6175,18 +6181,18 @@
       <c r="E15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="10">
         <f>COUNT(0)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="O15" s="71"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="10">
         <f>COUNTBLANK(H62:I62)</f>
         <v>2</v>
@@ -6322,7 +6328,7 @@
       <c r="B39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="68" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="69"/>
@@ -6340,10 +6346,10 @@
       <c r="B40" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="71" t="s">
+      <c r="C40" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="71"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="12">
         <v>5000</v>
       </c>
@@ -6356,10 +6362,10 @@
       <c r="B41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="71" t="s">
+      <c r="C41" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="71"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="12">
         <v>1200</v>
       </c>
@@ -6368,10 +6374,10 @@
       <c r="B42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="71"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="12">
         <v>38000</v>
       </c>
@@ -6380,10 +6386,10 @@
       <c r="B43" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="71"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="12">
         <v>42000</v>
       </c>
@@ -6392,10 +6398,10 @@
       <c r="B44" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="71"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="12">
         <v>54000</v>
       </c>
@@ -6404,10 +6410,10 @@
       <c r="B45" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="71"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="12">
         <v>1000</v>
       </c>
@@ -6416,10 +6422,10 @@
       <c r="B46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="71"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="12">
         <v>25000</v>
       </c>
@@ -6428,10 +6434,10 @@
       <c r="B47" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="71" t="s">
+      <c r="C47" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="71"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="12">
         <v>18000</v>
       </c>
@@ -6449,30 +6455,6 @@
     <row r="61" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="N12:O12"/>
@@ -6489,6 +6471,30 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -7111,7 +7117,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="70" t="s">
         <v>451</v>
       </c>
       <c r="C6" s="64" t="s">
@@ -7133,7 +7139,7 @@
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="71"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="65" t="s">
         <v>463</v>
       </c>
@@ -7153,7 +7159,7 @@
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>452</v>
       </c>
       <c r="C8" s="64" t="s">
@@ -7175,7 +7181,7 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="71"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="64" t="s">
         <v>454</v>
       </c>
@@ -7195,7 +7201,7 @@
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="64" t="s">
         <v>455</v>
       </c>
@@ -7215,7 +7221,7 @@
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="71"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="64" t="s">
         <v>456</v>
       </c>
@@ -7229,7 +7235,7 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>457</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -7245,14 +7251,14 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="71"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="64" t="s">
         <v>468</v>
       </c>
       <c r="D13" s="62"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="64" t="s">
         <v>459</v>
       </c>
@@ -7265,8 +7271,8 @@
       <c r="B15" s="43" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
